--- a/Experiments/spyder__UCI dataset experiment- FCM-KMeans/third experiment - v2.xlsx
+++ b/Experiments/spyder__UCI dataset experiment- FCM-KMeans/third experiment - v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkPlace\github projects\POCS_CLUSTERING\Experiments\spyder__UCI dataset experiment- FCM-KMeans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9137AD6-9BC6-4FB9-BE9E-E57A3D3F6FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C3788A-B0ED-4CF7-98FA-AF947B3AF348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{C67F7B1B-876C-4445-B37D-E1188BFB0A93}"/>
+    <workbookView xWindow="9690" yWindow="1380" windowWidth="7500" windowHeight="6000" activeTab="4" xr2:uid="{C67F7B1B-876C-4445-B37D-E1188BFB0A93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -647,7 +647,7 @@
   <dimension ref="D6:AE29"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB20"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,6 +1147,9 @@
       <c r="E14">
         <v>0.56041666666666601</v>
       </c>
+      <c r="F14">
+        <v>0.50595238095238004</v>
+      </c>
       <c r="G14" s="2">
         <v>0.58601190476190401</v>
       </c>
@@ -1158,6 +1161,9 @@
       </c>
       <c r="L14">
         <v>3.4065357101045697E-2</v>
+      </c>
+      <c r="M14">
+        <v>1.5291943546029901E-2</v>
       </c>
       <c r="N14" s="2">
         <v>4.4273271741570502E-2</v>
@@ -1206,7 +1212,7 @@
       </c>
       <c r="F15">
         <f t="shared" ref="F15:H15" si="0">AVERAGE(F7:F14)</f>
-        <v>0.72780641608990126</v>
+        <v>0.70007466169771115</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
@@ -1225,7 +1231,7 @@
       </c>
       <c r="M15">
         <f t="shared" ref="M15:O15" si="1">AVERAGE(M7:M14)</f>
-        <v>2.6674840188561845E-2</v>
+        <v>2.5251978108245351E-2</v>
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
@@ -1582,7 +1588,7 @@
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.505</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
@@ -1601,7 +1607,7 @@
       </c>
       <c r="M28">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N28">
         <f t="shared" si="5"/>
@@ -1622,7 +1628,7 @@
       </c>
       <c r="F29">
         <f t="shared" si="4"/>
-        <v>0.72699999999999998</v>
+        <v>0.7</v>
       </c>
       <c r="G29">
         <f t="shared" si="4"/>
@@ -1641,7 +1647,7 @@
       </c>
       <c r="M29">
         <f t="shared" ref="M29:O29" si="6">TRUNC(M15,3)</f>
-        <v>2.5999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="N29">
         <f t="shared" si="6"/>
@@ -1663,7 +1669,7 @@
   <dimension ref="D6:AD29"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6:AD15"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,6 +2169,9 @@
       <c r="E14">
         <v>0.83937111915914397</v>
       </c>
+      <c r="F14">
+        <v>0.85851505746742995</v>
+      </c>
       <c r="G14" s="2">
         <v>0.84627859153265494</v>
       </c>
@@ -2174,6 +2183,9 @@
       </c>
       <c r="L14">
         <v>3.4679865794872297E-2</v>
+      </c>
+      <c r="M14">
+        <v>1.3447809647372E-2</v>
       </c>
       <c r="N14" s="2">
         <v>4.51472667952975E-2</v>
@@ -2222,7 +2234,7 @@
       </c>
       <c r="F15">
         <f t="shared" ref="F15:H15" si="0">AVERAGE(F7:F14)</f>
-        <v>0.74398303483016603</v>
+        <v>0.75829953765982394</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
@@ -2241,7 +2253,7 @@
       </c>
       <c r="M15">
         <f t="shared" ref="M15:O15" si="1">AVERAGE(M7:M14)</f>
-        <v>2.8941008859063984E-2</v>
+        <v>2.7004358957602486E-2</v>
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
@@ -2598,7 +2610,7 @@
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
@@ -2617,7 +2629,7 @@
       </c>
       <c r="M28">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="N28">
         <f t="shared" si="5"/>
@@ -2638,7 +2650,7 @@
       </c>
       <c r="F29">
         <f t="shared" si="4"/>
-        <v>0.74299999999999999</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="G29">
         <f t="shared" si="4"/>
@@ -2657,7 +2669,7 @@
       </c>
       <c r="M29">
         <f t="shared" si="5"/>
-        <v>2.8000000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="N29">
         <f t="shared" si="5"/>
@@ -2678,7 +2690,7 @@
   <dimension ref="D6:AC29"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC19" sqref="AB19:AC19"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3178,6 +3190,9 @@
       <c r="E14">
         <v>0.56041666666666601</v>
       </c>
+      <c r="F14">
+        <v>0.50595238095238004</v>
+      </c>
       <c r="G14" s="2">
         <v>0.58601190476190401</v>
       </c>
@@ -3189,6 +3204,9 @@
       </c>
       <c r="L14">
         <v>3.4065357101045697E-2</v>
+      </c>
+      <c r="M14">
+        <v>1.5291943546029901E-2</v>
       </c>
       <c r="N14" s="2">
         <v>4.4273271741570502E-2</v>
@@ -3237,7 +3255,7 @@
       </c>
       <c r="F15">
         <f t="shared" ref="F15:H15" si="0">AVERAGE(F7:F14)</f>
-        <v>0.72780641608990126</v>
+        <v>0.70007466169771115</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
@@ -3256,7 +3274,7 @@
       </c>
       <c r="M15">
         <f t="shared" ref="M15:O15" si="1">AVERAGE(M7:M14)</f>
-        <v>2.6674840188561845E-2</v>
+        <v>2.5251978108245351E-2</v>
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
@@ -3613,7 +3631,7 @@
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.505</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
@@ -3632,7 +3650,7 @@
       </c>
       <c r="M28">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N28">
         <f t="shared" si="5"/>
@@ -3653,7 +3671,7 @@
       </c>
       <c r="F29">
         <f t="shared" si="4"/>
-        <v>0.72699999999999998</v>
+        <v>0.7</v>
       </c>
       <c r="G29">
         <f t="shared" si="4"/>
@@ -3672,7 +3690,7 @@
       </c>
       <c r="M29">
         <f t="shared" si="5"/>
-        <v>2.5999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="N29">
         <f t="shared" si="5"/>
@@ -3693,7 +3711,7 @@
   <dimension ref="D6:AC29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4193,6 +4211,9 @@
       <c r="E14">
         <v>0.63506021884279196</v>
       </c>
+      <c r="F14">
+        <v>0.59619473916472698</v>
+      </c>
       <c r="G14" s="2">
         <v>0.65841052229660801</v>
       </c>
@@ -4204,6 +4225,9 @@
       </c>
       <c r="L14">
         <v>4.26770500476105E-2</v>
+      </c>
+      <c r="M14">
+        <v>4.9361028325504899E-3</v>
       </c>
       <c r="N14" s="2">
         <v>4.6030307161245697E-2</v>
@@ -4252,7 +4276,7 @@
       </c>
       <c r="F15">
         <f t="shared" ref="F15:H15" si="0">AVERAGE(F7:F14)</f>
-        <v>0.72723742635655786</v>
+        <v>0.71085709045757905</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
@@ -4271,7 +4295,7 @@
       </c>
       <c r="M15">
         <f t="shared" ref="M15:O15" si="1">AVERAGE(M7:M14)</f>
-        <v>2.9463553271256625E-2</v>
+        <v>2.6397621966418358E-2</v>
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
@@ -4628,7 +4652,7 @@
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
@@ -4647,7 +4671,7 @@
       </c>
       <c r="M28">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N28">
         <f t="shared" si="5"/>
@@ -4668,7 +4692,7 @@
       </c>
       <c r="F29">
         <f t="shared" si="4"/>
-        <v>0.72699999999999998</v>
+        <v>0.71</v>
       </c>
       <c r="G29">
         <f t="shared" si="4"/>
@@ -4687,7 +4711,7 @@
       </c>
       <c r="M29">
         <f t="shared" ref="M29:O29" si="6">TRUNC(M15,3)</f>
-        <v>2.9000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="N29">
         <f t="shared" si="6"/>
